--- a/Documents/Design/Milestone&WorkAssignment.xlsx
+++ b/Documents/Design/Milestone&WorkAssignment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MileStoneAndWorkAssignment" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Requirement ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,14 @@
   </si>
   <si>
     <t>Event Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -294,15 +302,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -310,6 +309,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -652,7 +660,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -667,34 +675,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -706,45 +714,45 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="16" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="16" thickBot="1">
       <c r="A4" s="5" t="s">
@@ -756,28 +764,28 @@
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>36</v>
+      <c r="F4" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16" thickBot="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>36</v>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16" thickBot="1">
@@ -790,28 +798,28 @@
       <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>36</v>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16" thickBot="1">
@@ -824,13 +832,13 @@
       <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -838,51 +846,51 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="31" thickBot="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G1:N3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G1:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
